--- a/public/excel/PPE_Report.xlsx
+++ b/public/excel/PPE_Report.xlsx
@@ -499,7 +499,9 @@
       <c r="J2" t="s">
         <v>18</v>
       </c>
-      <c r="K2"/>
+      <c r="K2">
+        <v>48</v>
+      </c>
       <c r="L2" t="s">
         <v>19</v>
       </c>
@@ -538,7 +540,9 @@
       <c r="J3" t="s">
         <v>18</v>
       </c>
-      <c r="K3"/>
+      <c r="K3">
+        <v>48</v>
+      </c>
       <c r="L3" t="s">
         <v>19</v>
       </c>
@@ -577,7 +581,9 @@
       <c r="J4" t="s">
         <v>18</v>
       </c>
-      <c r="K4"/>
+      <c r="K4">
+        <v>48</v>
+      </c>
       <c r="L4" t="s">
         <v>19</v>
       </c>

--- a/public/excel/PPE_Report.xlsx
+++ b/public/excel/PPE_Report.xlsx
@@ -15,72 +15,192 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
-  <si>
-    <t>DATE</t>
-  </si>
-  <si>
-    <t>CONTROL #</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="62">
+  <si>
+    <t>GSO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACCOUNT </t>
   </si>
   <si>
     <t>DESCRIPTION</t>
   </si>
   <si>
-    <t>PROPERTY CODE</t>
-  </si>
-  <si>
-    <t>CATEGORY</t>
-  </si>
-  <si>
-    <t>PO#</t>
-  </si>
-  <si>
-    <t>QTY</t>
-  </si>
-  <si>
-    <t>UNIT VALUE</t>
-  </si>
-  <si>
-    <t>TOTAL VALUE</t>
-  </si>
-  <si>
-    <t>ACOUNTABLE PERSON</t>
-  </si>
-  <si>
-    <t>DEPARTMENT</t>
-  </si>
-  <si>
-    <t>SUPPLIER</t>
-  </si>
-  <si>
-    <t>INVOICE</t>
-  </si>
-  <si>
-    <t>2019-07-22</t>
-  </si>
-  <si>
-    <t>S-1907-0001</t>
-  </si>
-  <si>
-    <t>Item 1</t>
-  </si>
-  <si>
-    <t>Supplies</t>
-  </si>
-  <si>
-    <t>19-11-16-0725-100</t>
+    <t xml:space="preserve">Estimated </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACCOUNTABLE </t>
+  </si>
+  <si>
+    <t>(Exact Location,</t>
+  </si>
+  <si>
+    <t>Depriciable</t>
+  </si>
+  <si>
+    <t>UNIT</t>
+  </si>
+  <si>
+    <t>Balance per card</t>
+  </si>
+  <si>
+    <t>Shortage</t>
+  </si>
+  <si>
+    <t>ACCUMULATED</t>
+  </si>
+  <si>
+    <t>RESIDUAL</t>
+  </si>
+  <si>
+    <t>Property Code</t>
+  </si>
+  <si>
+    <t>GROUP</t>
+  </si>
+  <si>
+    <t>Life Years</t>
+  </si>
+  <si>
+    <t>Acquired</t>
+  </si>
+  <si>
+    <t>OFFICER</t>
+  </si>
+  <si>
+    <t>conditions, etc.)</t>
+  </si>
+  <si>
+    <t>(I/O)</t>
+  </si>
+  <si>
+    <t>VALUE</t>
+  </si>
+  <si>
+    <t>Qty</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Total Value</t>
+  </si>
+  <si>
+    <t>DEPRECIATION</t>
+  </si>
+  <si>
+    <t>Land (201) Code 1</t>
+  </si>
+  <si>
+    <t>01.50</t>
+  </si>
+  <si>
+    <t>Blackboard/White Board/Corkboard</t>
+  </si>
+  <si>
+    <t>Sticky Notes</t>
+  </si>
+  <si>
+    <t>2019-03-26</t>
+  </si>
+  <si>
+    <t>Bailey, Joannie</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>System Unit</t>
+  </si>
+  <si>
+    <t>Bins, Jeff</t>
+  </si>
+  <si>
+    <t>Water Dispenser</t>
+  </si>
+  <si>
+    <t>2019-04-02</t>
+  </si>
+  <si>
+    <t>Keyboard</t>
+  </si>
+  <si>
+    <t>2019-04-12</t>
+  </si>
+  <si>
+    <t>Anderson, Abel</t>
+  </si>
+  <si>
+    <t>Office Buildings (211) Code 2</t>
+  </si>
+  <si>
+    <t>02.500</t>
+  </si>
+  <si>
+    <t>Ball Pen</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>Notebook</t>
+  </si>
+  <si>
+    <t>Bernier, Jaylan</t>
+  </si>
+  <si>
+    <t>Mouse</t>
+  </si>
+  <si>
+    <t>School Buildings (212) Code 3</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>Monitor</t>
   </si>
   <si>
     <t>Abshire, Eloisa</t>
   </si>
   <si>
-    <t>AKY TRADING &amp; GEN. MDSE</t>
-  </si>
-  <si>
-    <t>Item 2</t>
-  </si>
-  <si>
-    <t>Item 3</t>
+    <t>Ceiling fan</t>
+  </si>
+  <si>
+    <t>2019-07-24</t>
+  </si>
+  <si>
+    <t>Beahan, Vidal</t>
+  </si>
+  <si>
+    <t>Hospitals and Health Centers (213) Code 4</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>Water bottles</t>
+  </si>
+  <si>
+    <t>Markets and Slaughterhouses (214) Code 5</t>
+  </si>
+  <si>
+    <t>05.11</t>
+  </si>
+  <si>
+    <t>Sample</t>
+  </si>
+  <si>
+    <t>2019-07-27</t>
+  </si>
+  <si>
+    <t>Balay</t>
   </si>
 </sst>
 </file>
@@ -110,14 +230,74 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border/>
+    <border>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="3" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="4" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="5" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -419,180 +599,645 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A8" sqref="A8:O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" t="s">
+    <row r="8" spans="1:15">
+      <c r="A8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K8" s="1"/>
+      <c r="L8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M8" s="1"/>
+      <c r="N8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O8" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
-      <c r="A2" t="s">
+    <row r="9" spans="1:15">
+      <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D2">
-        <v>369258</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="E9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="G9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K2">
+      <c r="H9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11">
+        <v>500</v>
+      </c>
+      <c r="J11">
+        <v>500</v>
+      </c>
+      <c r="K11">
+        <v>250000</v>
+      </c>
+      <c r="L11" t="s">
+        <v>32</v>
+      </c>
+      <c r="M11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N11">
+        <v>450</v>
+      </c>
+      <c r="O11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12">
+        <v>12</v>
+      </c>
+      <c r="J12">
+        <v>12</v>
+      </c>
+      <c r="K12">
+        <v>144</v>
+      </c>
+      <c r="L12" t="s">
+        <v>32</v>
+      </c>
+      <c r="M12" t="s">
+        <v>32</v>
+      </c>
+      <c r="N12">
+        <v>10.8</v>
+      </c>
+      <c r="O12">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I13">
+        <v>3</v>
+      </c>
+      <c r="J13">
+        <v>3</v>
+      </c>
+      <c r="K13">
+        <v>9</v>
+      </c>
+      <c r="L13" t="s">
+        <v>32</v>
+      </c>
+      <c r="M13" t="s">
+        <v>32</v>
+      </c>
+      <c r="N13">
+        <v>2.7</v>
+      </c>
+      <c r="O13">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14" t="s">
+        <v>31</v>
+      </c>
+      <c r="I14">
+        <v>10</v>
+      </c>
+      <c r="J14">
+        <v>10</v>
+      </c>
+      <c r="K14">
+        <v>100</v>
+      </c>
+      <c r="L14" t="s">
+        <v>32</v>
+      </c>
+      <c r="M14" t="s">
+        <v>32</v>
+      </c>
+      <c r="N14">
+        <v>9</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16" t="s">
+        <v>31</v>
+      </c>
+      <c r="I16">
+        <v>200</v>
+      </c>
+      <c r="J16">
+        <v>200</v>
+      </c>
+      <c r="K16">
+        <v>40000</v>
+      </c>
+      <c r="L16" t="s">
+        <v>32</v>
+      </c>
+      <c r="M16" t="s">
+        <v>32</v>
+      </c>
+      <c r="N16">
+        <v>180</v>
+      </c>
+      <c r="O16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I17">
+        <v>100</v>
+      </c>
+      <c r="J17">
+        <v>100</v>
+      </c>
+      <c r="K17">
+        <v>10000</v>
+      </c>
+      <c r="L17" t="s">
+        <v>32</v>
+      </c>
+      <c r="M17" t="s">
+        <v>32</v>
+      </c>
+      <c r="N17">
+        <v>90</v>
+      </c>
+      <c r="O17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" t="s">
+        <v>45</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18" t="s">
+        <v>31</v>
+      </c>
+      <c r="I18">
+        <v>11</v>
+      </c>
+      <c r="J18">
+        <v>11</v>
+      </c>
+      <c r="K18">
+        <v>121</v>
+      </c>
+      <c r="L18" t="s">
+        <v>32</v>
+      </c>
+      <c r="M18" t="s">
+        <v>32</v>
+      </c>
+      <c r="N18">
+        <v>9.9</v>
+      </c>
+      <c r="O18">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" t="s">
         <v>48</v>
       </c>
-      <c r="L2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2">
-        <v>1221</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3">
-        <v>369258</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3">
+      <c r="B20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" t="s">
+        <v>50</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20" t="s">
+        <v>31</v>
+      </c>
+      <c r="I20">
+        <v>12</v>
+      </c>
+      <c r="J20">
+        <v>12</v>
+      </c>
+      <c r="K20">
+        <v>144</v>
+      </c>
+      <c r="L20" t="s">
+        <v>32</v>
+      </c>
+      <c r="M20" t="s">
+        <v>32</v>
+      </c>
+      <c r="N20">
+        <v>10.8</v>
+      </c>
+      <c r="O20">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" t="s">
         <v>48</v>
       </c>
-      <c r="L3" t="s">
-        <v>19</v>
-      </c>
-      <c r="M3">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4">
-        <v>369258</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4">
-        <v>48</v>
-      </c>
-      <c r="L4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M4">
-        <v>122</v>
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" t="s">
+        <v>53</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21" t="s">
+        <v>31</v>
+      </c>
+      <c r="I21">
+        <v>5</v>
+      </c>
+      <c r="J21">
+        <v>5</v>
+      </c>
+      <c r="K21">
+        <v>25</v>
+      </c>
+      <c r="L21" t="s">
+        <v>32</v>
+      </c>
+      <c r="M21" t="s">
+        <v>32</v>
+      </c>
+      <c r="N21">
+        <v>4.5</v>
+      </c>
+      <c r="O21">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23" t="s">
+        <v>31</v>
+      </c>
+      <c r="I23">
+        <v>69</v>
+      </c>
+      <c r="J23">
+        <v>69</v>
+      </c>
+      <c r="K23">
+        <v>4761</v>
+      </c>
+      <c r="L23" t="s">
+        <v>32</v>
+      </c>
+      <c r="M23" t="s">
+        <v>32</v>
+      </c>
+      <c r="N23">
+        <v>62.1</v>
+      </c>
+      <c r="O23">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>60</v>
+      </c>
+      <c r="F25" t="s">
+        <v>50</v>
+      </c>
+      <c r="G25" t="s">
+        <v>61</v>
+      </c>
+      <c r="H25" t="s">
+        <v>31</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25" t="s">
+        <v>32</v>
+      </c>
+      <c r="M25" t="s">
+        <v>32</v>
+      </c>
+      <c r="N25">
+        <v>0.9</v>
+      </c>
+      <c r="O25">
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <mergeCells>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:M8"/>
+  </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>

--- a/public/excel/PPE_Report.xlsx
+++ b/public/excel/PPE_Report.xlsx
@@ -15,7 +15,34 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="103">
+  <si>
+    <t>INVENTORY OF EQUIPMENT</t>
+  </si>
+  <si>
+    <t>Made as of December 2019</t>
+  </si>
+  <si>
+    <t>For which</t>
+  </si>
+  <si>
+    <t>Jaclyn Iva Dietrich</t>
+  </si>
+  <si>
+    <t>City Accounting Department</t>
+  </si>
+  <si>
+    <t>Olongapo City is accountable having assumed such acountability on</t>
+  </si>
+  <si>
+    <t>(Name of Accountable Officer)</t>
+  </si>
+  <si>
+    <t>(Official designation)</t>
+  </si>
+  <si>
+    <t>(Bureau office)</t>
+  </si>
   <si>
     <t>GSO</t>
   </si>
@@ -95,79 +122,133 @@
     <t>Land (201) Code 1</t>
   </si>
   <si>
-    <t>01.50</t>
+    <t>01.51</t>
+  </si>
+  <si>
+    <t>Chart holder</t>
+  </si>
+  <si>
+    <t>Sticky Notes</t>
+  </si>
+  <si>
+    <t>2019-03-26</t>
+  </si>
+  <si>
+    <t>Bailey, Joannie</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>System Unit</t>
+  </si>
+  <si>
+    <t>Bins, Jeff</t>
+  </si>
+  <si>
+    <t>01.54</t>
+  </si>
+  <si>
+    <t>Emergency light</t>
+  </si>
+  <si>
+    <t>Water Dispenser</t>
+  </si>
+  <si>
+    <t>2019-04-02</t>
+  </si>
+  <si>
+    <t>01.57</t>
+  </si>
+  <si>
+    <t>Spoon &amp; forks</t>
+  </si>
+  <si>
+    <t>Keyboard</t>
+  </si>
+  <si>
+    <t>2019-04-12</t>
+  </si>
+  <si>
+    <t>Anderson, Abel</t>
+  </si>
+  <si>
+    <t>Office Buildings (211) Code 2</t>
+  </si>
+  <si>
+    <t>02.510</t>
+  </si>
+  <si>
+    <t>Ball Pen</t>
+  </si>
+  <si>
+    <t>02.41</t>
+  </si>
+  <si>
+    <t>Textbooks</t>
+  </si>
+  <si>
+    <t>Notebook</t>
+  </si>
+  <si>
+    <t>Bernier, Jaylan</t>
+  </si>
+  <si>
+    <t>02.11</t>
   </si>
   <si>
     <t>Blackboard/White Board/Corkboard</t>
   </si>
   <si>
-    <t>Sticky Notes</t>
-  </si>
-  <si>
-    <t>2019-03-26</t>
-  </si>
-  <si>
-    <t>Bailey, Joannie</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>System Unit</t>
-  </si>
-  <si>
-    <t>Bins, Jeff</t>
-  </si>
-  <si>
-    <t>Water Dispenser</t>
-  </si>
-  <si>
-    <t>2019-04-02</t>
-  </si>
-  <si>
-    <t>Keyboard</t>
-  </si>
-  <si>
-    <t>2019-04-12</t>
-  </si>
-  <si>
-    <t>Anderson, Abel</t>
-  </si>
-  <si>
-    <t>Office Buildings (211) Code 2</t>
-  </si>
-  <si>
-    <t>02.500</t>
-  </si>
-  <si>
-    <t>Ball Pen</t>
-  </si>
-  <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>Notebook</t>
-  </si>
-  <si>
-    <t>Bernier, Jaylan</t>
-  </si>
-  <si>
     <t>Mouse</t>
   </si>
   <si>
+    <t>02.51</t>
+  </si>
+  <si>
+    <t>2019-12-09</t>
+  </si>
+  <si>
+    <t>Anderson, Elisabeth</t>
+  </si>
+  <si>
+    <t>Balay</t>
+  </si>
+  <si>
+    <t>Anderson, Zachary</t>
+  </si>
+  <si>
+    <t>fghjkl;</t>
+  </si>
+  <si>
+    <t>Abshire, Eloisa</t>
+  </si>
+  <si>
+    <t>Test item 1</t>
+  </si>
+  <si>
+    <t>Altenwerth, Robert</t>
+  </si>
+  <si>
     <t>School Buildings (212) Code 3</t>
   </si>
   <si>
-    <t>03</t>
+    <t>03.56</t>
+  </si>
+  <si>
+    <t>Rugs, Carpets &amp; Mats</t>
   </si>
   <si>
     <t>Monitor</t>
   </si>
   <si>
-    <t>Abshire, Eloisa</t>
+    <t>03.21</t>
+  </si>
+  <si>
+    <t>Amalgam Carrier</t>
   </si>
   <si>
     <t>Ceiling fan</t>
@@ -182,7 +263,10 @@
     <t>Hospitals and Health Centers (213) Code 4</t>
   </si>
   <si>
-    <t>04</t>
+    <t>04.42</t>
+  </si>
+  <si>
+    <t>Instructional Material</t>
   </si>
   <si>
     <t>Water bottles</t>
@@ -200,7 +284,46 @@
     <t>2019-07-27</t>
   </si>
   <si>
-    <t>Balay</t>
+    <t>Office Equipment (221) Code 7</t>
+  </si>
+  <si>
+    <t>07.13</t>
+  </si>
+  <si>
+    <t>Desk Tray</t>
+  </si>
+  <si>
+    <t>Shabu</t>
+  </si>
+  <si>
+    <t>2019-12-06</t>
+  </si>
+  <si>
+    <t>Morissette, Eddie</t>
+  </si>
+  <si>
+    <t>IT Equipment &amp; Software (223) Code 9</t>
+  </si>
+  <si>
+    <t>09.12</t>
+  </si>
+  <si>
+    <t>Cutter</t>
+  </si>
+  <si>
+    <t>Marijuana</t>
+  </si>
+  <si>
+    <t>Library Books (224) Code 10</t>
+  </si>
+  <si>
+    <t>Tables</t>
+  </si>
+  <si>
+    <t>dfdgfd</t>
+  </si>
+  <si>
+    <t>Aufderhar, Nathanael</t>
   </si>
 </sst>
 </file>
@@ -208,13 +331,22 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <b val="0"/>
       <i val="0"/>
       <strike val="0"/>
       <u val="none"/>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
@@ -278,8 +410,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
@@ -599,131 +734,183 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:O44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A8" sqref="A8:O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="71.696777" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="38.847656" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="31.706543" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="77.695313" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="12.854004" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="24.708252" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="21.137695" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="13.996582" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="6.998291" bestFit="true" customWidth="true" style="0"/>
+    <col min="10" max="10" width="4.570313" bestFit="true" customWidth="true" style="0"/>
+    <col min="11" max="11" width="8.140869" bestFit="true" customWidth="true" style="0"/>
+    <col min="12" max="12" width="4.570313" bestFit="true" customWidth="true" style="0"/>
+    <col min="13" max="13" width="13.996582" bestFit="true" customWidth="true" style="0"/>
+    <col min="14" max="14" width="18.709717" bestFit="true" customWidth="true" style="0"/>
+    <col min="15" max="15" width="10.568848" bestFit="true" customWidth="true" style="0"/>
+  </cols>
   <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+    </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J8" s="1" t="s">
+      <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="O8" s="5" t="s">
+      <c r="D8" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="E8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K9" s="2" t="s">
+      <c r="A9" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="L9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N9" s="2" t="s">
+      <c r="C9" s="3"/>
+      <c r="D9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O9" s="6" t="s">
-        <v>20</v>
+      <c r="E9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" t="s">
-        <v>25</v>
+      <c r="A10" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="F11" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="I11">
         <v>500</v>
@@ -735,10 +922,10 @@
         <v>250000</v>
       </c>
       <c r="L11" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="M11" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="N11">
         <v>450</v>
@@ -749,28 +936,28 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="F12" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="I12">
         <v>12</v>
@@ -782,10 +969,10 @@
         <v>144</v>
       </c>
       <c r="L12" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="M12" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="N12">
         <v>10.8</v>
@@ -796,25 +983,22 @@
     </row>
     <row r="13" spans="1:15">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E13" t="s">
-        <v>36</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="I13">
         <v>3</v>
@@ -826,13 +1010,13 @@
         <v>9</v>
       </c>
       <c r="L13" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="M13" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="N13">
-        <v>2.7</v>
+        <v>0.675</v>
       </c>
       <c r="O13">
         <v>0.3</v>
@@ -840,28 +1024,28 @@
     </row>
     <row r="14" spans="1:15">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E14" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="F14" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="I14">
         <v>10</v>
@@ -873,47 +1057,47 @@
         <v>100</v>
       </c>
       <c r="L14" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="M14" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="N14">
-        <v>9</v>
+        <v>1.2857142857143</v>
       </c>
       <c r="O14">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" t="s">
-        <v>40</v>
+      <c r="A15" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="F16" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="I16">
         <v>200</v>
@@ -925,10 +1109,10 @@
         <v>40000</v>
       </c>
       <c r="L16" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="M16" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="N16">
         <v>180</v>
@@ -939,28 +1123,28 @@
     </row>
     <row r="17" spans="1:15">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="F17" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="I17">
         <v>100</v>
@@ -972,10 +1156,10 @@
         <v>10000</v>
       </c>
       <c r="L17" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="M17" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="N17">
         <v>90</v>
@@ -986,28 +1170,28 @@
     </row>
     <row r="18" spans="1:15">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="C18" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="F18" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="I18">
         <v>11</v>
@@ -1019,10 +1203,10 @@
         <v>121</v>
       </c>
       <c r="L18" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="M18" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="N18">
         <v>9.9</v>
@@ -1033,181 +1217,310 @@
     </row>
     <row r="19" spans="1:15">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>63</v>
+      </c>
+      <c r="B19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19">
+        <v>4555</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F19" t="s">
+        <v>65</v>
+      </c>
+      <c r="G19" t="s">
+        <v>66</v>
+      </c>
+      <c r="H19" t="s">
+        <v>40</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19" t="s">
+        <v>41</v>
+      </c>
+      <c r="M19" t="s">
+        <v>41</v>
+      </c>
+      <c r="N19">
+        <v>0.9</v>
+      </c>
+      <c r="O19">
+        <v>0.1</v>
       </c>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" t="s">
-        <v>49</v>
+        <v>36</v>
+      </c>
+      <c r="C20">
+        <v>4555</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="F20" t="s">
-        <v>50</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
+        <v>65</v>
+      </c>
+      <c r="G20" t="s">
+        <v>66</v>
       </c>
       <c r="H20" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="I20">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="J20">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="K20">
-        <v>144</v>
+        <v>1</v>
       </c>
       <c r="L20" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="M20" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="N20">
-        <v>10.8</v>
+        <v>0.9</v>
       </c>
       <c r="O20">
-        <v>1.2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" t="s">
-        <v>51</v>
+        <v>36</v>
+      </c>
+      <c r="C21">
+        <v>4555</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="F21" t="s">
-        <v>53</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
+        <v>65</v>
+      </c>
+      <c r="G21" t="s">
+        <v>66</v>
       </c>
       <c r="H21" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="I21">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J21">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K21">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="L21" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="M21" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="N21">
-        <v>4.5</v>
+        <v>0.9</v>
       </c>
       <c r="O21">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" t="s">
-        <v>54</v>
+        <v>63</v>
+      </c>
+      <c r="B22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22">
+        <v>4555</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>64</v>
+      </c>
+      <c r="F22" t="s">
+        <v>67</v>
+      </c>
+      <c r="G22" t="s">
+        <v>66</v>
+      </c>
+      <c r="H22" t="s">
+        <v>40</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22" t="s">
+        <v>41</v>
+      </c>
+      <c r="M22" t="s">
+        <v>41</v>
+      </c>
+      <c r="N22">
+        <v>0.9</v>
+      </c>
+      <c r="O22">
+        <v>0.1</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>36</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
+        <v>64</v>
+      </c>
+      <c r="F23" t="s">
+        <v>69</v>
+      </c>
+      <c r="G23" t="s">
+        <v>66</v>
       </c>
       <c r="H23" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="I23">
-        <v>69</v>
+        <v>1</v>
       </c>
       <c r="J23">
-        <v>69</v>
+        <v>1</v>
       </c>
       <c r="K23">
-        <v>4761</v>
+        <v>1</v>
       </c>
       <c r="L23" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="M23" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="N23">
-        <v>62.1</v>
+        <v>0.9</v>
       </c>
       <c r="O23">
-        <v>6.9</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" t="s">
-        <v>57</v>
+        <v>63</v>
+      </c>
+      <c r="B24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>64</v>
+      </c>
+      <c r="F24" t="s">
+        <v>69</v>
+      </c>
+      <c r="G24" t="s">
+        <v>66</v>
+      </c>
+      <c r="H24" t="s">
+        <v>40</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24" t="s">
+        <v>41</v>
+      </c>
+      <c r="M24" t="s">
+        <v>41</v>
+      </c>
+      <c r="N24">
+        <v>0.9</v>
+      </c>
+      <c r="O24">
+        <v>0.1</v>
       </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C25" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F25" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="G25" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="H25" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="I25">
         <v>1</v>
@@ -1219,15 +1532,638 @@
         <v>1</v>
       </c>
       <c r="L25" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="M25" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="N25">
         <v>0.9</v>
       </c>
       <c r="O25">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>64</v>
+      </c>
+      <c r="F26" t="s">
+        <v>71</v>
+      </c>
+      <c r="G26" t="s">
+        <v>66</v>
+      </c>
+      <c r="H26" t="s">
+        <v>40</v>
+      </c>
+      <c r="I26">
+        <v>40</v>
+      </c>
+      <c r="J26">
+        <v>40</v>
+      </c>
+      <c r="K26">
+        <v>1600</v>
+      </c>
+      <c r="L26" t="s">
+        <v>41</v>
+      </c>
+      <c r="M26" t="s">
+        <v>41</v>
+      </c>
+      <c r="N26">
+        <v>36</v>
+      </c>
+      <c r="O26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>64</v>
+      </c>
+      <c r="F27" t="s">
+        <v>71</v>
+      </c>
+      <c r="G27" t="s">
+        <v>66</v>
+      </c>
+      <c r="H27" t="s">
+        <v>40</v>
+      </c>
+      <c r="I27">
+        <v>40</v>
+      </c>
+      <c r="J27">
+        <v>40</v>
+      </c>
+      <c r="K27">
+        <v>1600</v>
+      </c>
+      <c r="L27" t="s">
+        <v>41</v>
+      </c>
+      <c r="M27" t="s">
+        <v>41</v>
+      </c>
+      <c r="N27">
+        <v>36</v>
+      </c>
+      <c r="O27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G28" t="s">
+        <v>66</v>
+      </c>
+      <c r="H28" t="s">
+        <v>40</v>
+      </c>
+      <c r="I28">
+        <v>40</v>
+      </c>
+      <c r="J28">
+        <v>40</v>
+      </c>
+      <c r="K28">
+        <v>1600</v>
+      </c>
+      <c r="L28" t="s">
+        <v>41</v>
+      </c>
+      <c r="M28" t="s">
+        <v>41</v>
+      </c>
+      <c r="N28">
+        <v>36</v>
+      </c>
+      <c r="O28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G29" t="s">
+        <v>66</v>
+      </c>
+      <c r="H29" t="s">
+        <v>40</v>
+      </c>
+      <c r="I29">
+        <v>40</v>
+      </c>
+      <c r="J29">
+        <v>40</v>
+      </c>
+      <c r="K29">
+        <v>1600</v>
+      </c>
+      <c r="L29" t="s">
+        <v>41</v>
+      </c>
+      <c r="M29" t="s">
+        <v>41</v>
+      </c>
+      <c r="N29">
+        <v>36</v>
+      </c>
+      <c r="O29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" t="s">
+        <v>70</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>64</v>
+      </c>
+      <c r="G30" t="s">
+        <v>66</v>
+      </c>
+      <c r="H30" t="s">
+        <v>40</v>
+      </c>
+      <c r="I30">
+        <v>40</v>
+      </c>
+      <c r="J30">
+        <v>40</v>
+      </c>
+      <c r="K30">
+        <v>1600</v>
+      </c>
+      <c r="L30" t="s">
+        <v>41</v>
+      </c>
+      <c r="M30" t="s">
+        <v>41</v>
+      </c>
+      <c r="N30">
+        <v>36</v>
+      </c>
+      <c r="O30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" t="s">
+        <v>70</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>64</v>
+      </c>
+      <c r="G31" t="s">
+        <v>66</v>
+      </c>
+      <c r="H31" t="s">
+        <v>40</v>
+      </c>
+      <c r="I31">
+        <v>40</v>
+      </c>
+      <c r="J31">
+        <v>40</v>
+      </c>
+      <c r="K31">
+        <v>1600</v>
+      </c>
+      <c r="L31" t="s">
+        <v>41</v>
+      </c>
+      <c r="M31" t="s">
+        <v>41</v>
+      </c>
+      <c r="N31">
+        <v>36</v>
+      </c>
+      <c r="O31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="A33" t="s">
+        <v>73</v>
+      </c>
+      <c r="B33" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" t="s">
+        <v>75</v>
+      </c>
+      <c r="D33">
+        <v>6</v>
+      </c>
+      <c r="E33" t="s">
+        <v>38</v>
+      </c>
+      <c r="F33" t="s">
+        <v>69</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33" t="s">
+        <v>40</v>
+      </c>
+      <c r="I33">
+        <v>12</v>
+      </c>
+      <c r="J33">
+        <v>12</v>
+      </c>
+      <c r="K33">
+        <v>144</v>
+      </c>
+      <c r="L33" t="s">
+        <v>41</v>
+      </c>
+      <c r="M33" t="s">
+        <v>41</v>
+      </c>
+      <c r="N33">
+        <v>1.8</v>
+      </c>
+      <c r="O33">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="A34" t="s">
+        <v>76</v>
+      </c>
+      <c r="B34" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34" t="s">
+        <v>78</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34" t="s">
+        <v>79</v>
+      </c>
+      <c r="F34" t="s">
+        <v>80</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34" t="s">
+        <v>40</v>
+      </c>
+      <c r="I34">
+        <v>5</v>
+      </c>
+      <c r="J34">
+        <v>5</v>
+      </c>
+      <c r="K34">
+        <v>25</v>
+      </c>
+      <c r="L34" t="s">
+        <v>41</v>
+      </c>
+      <c r="M34" t="s">
+        <v>41</v>
+      </c>
+      <c r="N34">
+        <v>4.5</v>
+      </c>
+      <c r="O34">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="A35" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="A36" t="s">
+        <v>82</v>
+      </c>
+      <c r="B36" t="s">
+        <v>83</v>
+      </c>
+      <c r="C36" t="s">
+        <v>84</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36" t="s">
+        <v>47</v>
+      </c>
+      <c r="H36" t="s">
+        <v>40</v>
+      </c>
+      <c r="I36">
+        <v>69</v>
+      </c>
+      <c r="J36">
+        <v>69</v>
+      </c>
+      <c r="K36">
+        <v>4761</v>
+      </c>
+      <c r="L36" t="s">
+        <v>41</v>
+      </c>
+      <c r="M36" t="s">
+        <v>41</v>
+      </c>
+      <c r="N36">
+        <v>31.05</v>
+      </c>
+      <c r="O36">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="A37" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="A38" t="s">
+        <v>86</v>
+      </c>
+      <c r="B38" t="s">
+        <v>61</v>
+      </c>
+      <c r="C38" t="s">
+        <v>87</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38" t="s">
+        <v>88</v>
+      </c>
+      <c r="F38" t="s">
+        <v>69</v>
+      </c>
+      <c r="G38" t="s">
+        <v>40</v>
+      </c>
+      <c r="H38" t="s">
+        <v>40</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38" t="s">
+        <v>41</v>
+      </c>
+      <c r="M38" t="s">
+        <v>41</v>
+      </c>
+      <c r="N38">
+        <v>0.9</v>
+      </c>
+      <c r="O38">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="A39" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
+      <c r="A40" t="s">
+        <v>90</v>
+      </c>
+      <c r="B40" t="s">
+        <v>91</v>
+      </c>
+      <c r="C40" t="s">
+        <v>92</v>
+      </c>
+      <c r="D40">
+        <v>3</v>
+      </c>
+      <c r="E40" t="s">
+        <v>93</v>
+      </c>
+      <c r="F40" t="s">
+        <v>94</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40" t="s">
+        <v>40</v>
+      </c>
+      <c r="I40">
+        <v>50</v>
+      </c>
+      <c r="J40">
+        <v>50</v>
+      </c>
+      <c r="K40">
+        <v>2500</v>
+      </c>
+      <c r="L40" t="s">
+        <v>41</v>
+      </c>
+      <c r="M40" t="s">
+        <v>41</v>
+      </c>
+      <c r="N40">
+        <v>15</v>
+      </c>
+      <c r="O40">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
+      <c r="A41" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
+      <c r="A42" t="s">
+        <v>96</v>
+      </c>
+      <c r="B42" t="s">
+        <v>97</v>
+      </c>
+      <c r="C42" t="s">
+        <v>98</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42" t="s">
+        <v>93</v>
+      </c>
+      <c r="F42" t="s">
+        <v>67</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42" t="s">
+        <v>40</v>
+      </c>
+      <c r="I42">
+        <v>100</v>
+      </c>
+      <c r="J42">
+        <v>100</v>
+      </c>
+      <c r="K42">
+        <v>10000</v>
+      </c>
+      <c r="L42" t="s">
+        <v>41</v>
+      </c>
+      <c r="M42" t="s">
+        <v>41</v>
+      </c>
+      <c r="N42">
+        <v>45</v>
+      </c>
+      <c r="O42">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="A43" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="A44">
+        <v>10.45</v>
+      </c>
+      <c r="B44" t="s">
+        <v>100</v>
+      </c>
+      <c r="C44" t="s">
+        <v>101</v>
+      </c>
+      <c r="D44">
+        <v>5</v>
+      </c>
+      <c r="E44" t="s">
+        <v>93</v>
+      </c>
+      <c r="F44" t="s">
+        <v>102</v>
+      </c>
+      <c r="G44" t="s">
+        <v>66</v>
+      </c>
+      <c r="H44" t="s">
+        <v>40</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
+      </c>
+      <c r="L44" t="s">
+        <v>41</v>
+      </c>
+      <c r="M44" t="s">
+        <v>41</v>
+      </c>
+      <c r="N44">
+        <v>0.18</v>
+      </c>
+      <c r="O44">
         <v>0.1</v>
       </c>
     </row>

--- a/public/excel/PPE_Report.xlsx
+++ b/public/excel/PPE_Report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
   <si>
     <t>INVENTORY OF EQUIPMENT</t>
   </si>
@@ -26,10 +26,10 @@
     <t>For which</t>
   </si>
   <si>
-    <t>Sheila Marilie Lueilwitz</t>
-  </si>
-  <si>
-    <t>James L. Gordon Avenue Market and Mall</t>
+    <t>Boris Ida Stoltenberg</t>
+  </si>
+  <si>
+    <t>City Accounting Department</t>
   </si>
   <si>
     <t>Olongapo City is accountable having assumed such acountability on</t>
@@ -119,28 +119,61 @@
     <t>DEPRECIATION</t>
   </si>
   <si>
+    <t>Land (201) Code 1</t>
+  </si>
+  <si>
+    <t>01.51</t>
+  </si>
+  <si>
+    <t>Chart holder</t>
+  </si>
+  <si>
+    <t>Sticky Notes</t>
+  </si>
+  <si>
+    <t>2019-03-26</t>
+  </si>
+  <si>
+    <t>Bailey, Joannie</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>01.54</t>
+  </si>
+  <si>
+    <t>Emergency light</t>
+  </si>
+  <si>
+    <t>Water Dispenser</t>
+  </si>
+  <si>
+    <t>2019-04-02</t>
+  </si>
+  <si>
     <t>Office Buildings (211) Code 2</t>
   </si>
   <si>
-    <t>02.51</t>
-  </si>
-  <si>
-    <t>Chart holder</t>
-  </si>
-  <si>
-    <t>2019-12-09</t>
-  </si>
-  <si>
-    <t>Anderson, Elisabeth</t>
-  </si>
-  <si>
-    <t>Balay</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
+    <t>02.510</t>
+  </si>
+  <si>
+    <t>Ball Pen</t>
+  </si>
+  <si>
+    <t>Hospitals and Health Centers (213) Code 4</t>
+  </si>
+  <si>
+    <t>04.42</t>
+  </si>
+  <si>
+    <t>Instructional Material</t>
+  </si>
+  <si>
+    <t>Water bottles</t>
   </si>
 </sst>
 </file>
@@ -551,7 +584,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A8" sqref="A8:O9"/>
@@ -559,17 +592,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="51.130371" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="71.696777" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="35.2771" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="45.845947" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="31.706543" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="77.695313" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="23.422852" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="18.709717" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="21.137695" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="13.996582" bestFit="true" customWidth="true" style="0"/>
     <col min="9" max="9" width="6.998291" bestFit="true" customWidth="true" style="0"/>
     <col min="10" max="10" width="4.570313" bestFit="true" customWidth="true" style="0"/>
-    <col min="11" max="11" width="6.998291" bestFit="true" customWidth="true" style="0"/>
+    <col min="11" max="11" width="8.140869" bestFit="true" customWidth="true" style="0"/>
     <col min="12" max="12" width="4.570313" bestFit="true" customWidth="true" style="0"/>
     <col min="13" max="13" width="13.996582" bestFit="true" customWidth="true" style="0"/>
     <col min="14" max="14" width="15.281982" bestFit="true" customWidth="true" style="0"/>
@@ -711,32 +744,32 @@
       <c r="B11" t="s">
         <v>36</v>
       </c>
-      <c r="C11">
-        <v>4555</v>
+      <c r="C11" t="s">
+        <v>37</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F11" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" t="s">
         <v>39</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
       </c>
       <c r="H11" t="s">
         <v>40</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>500.0</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>500.0</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>250000.0</v>
       </c>
       <c r="L11" t="s">
         <v>41</v>
@@ -745,45 +778,42 @@
         <v>41</v>
       </c>
       <c r="N11">
-        <v>0.9</v>
+        <v>450.0</v>
       </c>
       <c r="O11">
-        <v>0.1</v>
+        <v>50.0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12">
-        <v>4555</v>
+        <v>43</v>
+      </c>
+      <c r="C12" t="s">
+        <v>44</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E12" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" t="s">
         <v>39</v>
       </c>
       <c r="H12" t="s">
         <v>40</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>3.0</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <v>3.0</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>9.0</v>
       </c>
       <c r="L12" t="s">
         <v>41</v>
@@ -792,57 +822,111 @@
         <v>41</v>
       </c>
       <c r="N12">
-        <v>0.9</v>
+        <v>0.675</v>
       </c>
       <c r="O12">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="A13" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" t="s">
         <v>36</v>
       </c>
-      <c r="C13">
-        <v>4555</v>
-      </c>
-      <c r="D13">
+      <c r="C14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14">
         <v>1</v>
       </c>
-      <c r="E13" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="E14" t="s">
         <v>38</v>
       </c>
-      <c r="G13" t="s">
+      <c r="F14" t="s">
         <v>39</v>
       </c>
-      <c r="H13" t="s">
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14" t="s">
         <v>40</v>
       </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13" t="s">
+      <c r="I14">
+        <v>200.0</v>
+      </c>
+      <c r="J14">
+        <v>200.0</v>
+      </c>
+      <c r="K14">
+        <v>40000.0</v>
+      </c>
+      <c r="L14" t="s">
         <v>41</v>
       </c>
-      <c r="M13" t="s">
+      <c r="M14" t="s">
         <v>41</v>
       </c>
-      <c r="N13">
-        <v>0.9</v>
-      </c>
-      <c r="O13">
-        <v>0.1</v>
+      <c r="N14">
+        <v>180.0</v>
+      </c>
+      <c r="O14">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" t="s">
+        <v>39</v>
+      </c>
+      <c r="H16" t="s">
+        <v>40</v>
+      </c>
+      <c r="I16">
+        <v>69.0</v>
+      </c>
+      <c r="J16">
+        <v>69.0</v>
+      </c>
+      <c r="K16">
+        <v>4761.0</v>
+      </c>
+      <c r="L16" t="s">
+        <v>41</v>
+      </c>
+      <c r="M16" t="s">
+        <v>41</v>
+      </c>
+      <c r="N16">
+        <v>31.05</v>
+      </c>
+      <c r="O16">
+        <v>6.9</v>
       </c>
     </row>
   </sheetData>

--- a/public/excel/PPE_Report.xlsx
+++ b/public/excel/PPE_Report.xlsx
@@ -15,7 +15,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="54">
+  <si>
+    <t>All items by Joannie Abbey Bailey</t>
+  </si>
   <si>
     <t>INVENTORY OF EQUIPMENT</t>
   </si>
@@ -584,10 +587,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:O16"/>
+  <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A8" sqref="A8:O9"/>
+      <selection activeCell="A9" sqref="A9:O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -595,8 +598,8 @@
     <col min="1" max="1" width="71.696777" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="35.2771" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="31.706543" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="77.695313" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="12.854004" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="12.854004" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="77.695313" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="18.709717" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="21.137695" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="13.996582" bestFit="true" customWidth="true" style="0"/>
@@ -614,327 +617,332 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
-      <c r="A3" t="s">
+    <row r="2" spans="1:15">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
-      <c r="A5" t="s">
+    <row r="4" spans="1:15">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="B6" t="s">
+      <c r="E6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" t="s">
+    </row>
+    <row r="7" spans="1:15">
+      <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="D6" t="s">
+      <c r="C7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="4" t="s">
+      <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="2" t="s">
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="I9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2" t="s">
+      <c r="J9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2" t="s">
+      <c r="K9" s="2"/>
+      <c r="L9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="O8" s="6" t="s">
+      <c r="M9" s="2"/>
+      <c r="N9" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="5" t="s">
+      <c r="O9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="3" t="s">
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3" t="s">
+      <c r="B10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="C10" s="3"/>
+      <c r="D10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="E10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="G10" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="H10" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="I10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="J10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="K10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="1" t="s">
-        <v>34</v>
-      </c>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="B11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11" t="s">
-        <v>40</v>
-      </c>
-      <c r="I11">
-        <v>500.0</v>
-      </c>
-      <c r="J11">
-        <v>500.0</v>
-      </c>
-      <c r="K11">
-        <v>250000.0</v>
-      </c>
-      <c r="L11" t="s">
-        <v>41</v>
-      </c>
-      <c r="M11" t="s">
-        <v>41</v>
-      </c>
-      <c r="N11">
-        <v>450.0</v>
-      </c>
-      <c r="O11">
-        <v>50.0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I12">
+        <v>500.0</v>
+      </c>
+      <c r="J12">
+        <v>500.0</v>
+      </c>
+      <c r="K12">
+        <v>250000.0</v>
+      </c>
+      <c r="L12" t="s">
         <v>42</v>
       </c>
-      <c r="B12" t="s">
+      <c r="M12" t="s">
+        <v>42</v>
+      </c>
+      <c r="N12">
+        <v>450.0</v>
+      </c>
+      <c r="O12">
+        <v>50.0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" t="s">
         <v>43</v>
       </c>
-      <c r="C12" t="s">
+      <c r="B13" t="s">
         <v>44</v>
       </c>
-      <c r="D12">
+      <c r="C13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13">
         <v>4</v>
       </c>
-      <c r="E12" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="E13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I13">
+        <v>3.0</v>
+      </c>
+      <c r="J13">
+        <v>3.0</v>
+      </c>
+      <c r="K13">
+        <v>9.0</v>
+      </c>
+      <c r="L13" t="s">
+        <v>42</v>
+      </c>
+      <c r="M13" t="s">
+        <v>42</v>
+      </c>
+      <c r="N13">
+        <v>0.675</v>
+      </c>
+      <c r="O13">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
         <v>39</v>
       </c>
-      <c r="H12" t="s">
+      <c r="F15" t="s">
         <v>40</v>
       </c>
-      <c r="I12">
-        <v>3.0</v>
-      </c>
-      <c r="J12">
-        <v>3.0</v>
-      </c>
-      <c r="K12">
-        <v>9.0</v>
-      </c>
-      <c r="L12" t="s">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15" t="s">
         <v>41</v>
       </c>
-      <c r="M12" t="s">
+      <c r="I15">
+        <v>200.0</v>
+      </c>
+      <c r="J15">
+        <v>200.0</v>
+      </c>
+      <c r="K15">
+        <v>40000.0</v>
+      </c>
+      <c r="L15" t="s">
+        <v>42</v>
+      </c>
+      <c r="M15" t="s">
+        <v>42</v>
+      </c>
+      <c r="N15">
+        <v>180.0</v>
+      </c>
+      <c r="O15">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H17" t="s">
         <v>41</v>
       </c>
-      <c r="N12">
-        <v>0.675</v>
-      </c>
-      <c r="O12">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="A13" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="A14" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14" t="s">
-        <v>38</v>
-      </c>
-      <c r="F14" t="s">
-        <v>39</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14" t="s">
-        <v>40</v>
-      </c>
-      <c r="I14">
-        <v>200.0</v>
-      </c>
-      <c r="J14">
-        <v>200.0</v>
-      </c>
-      <c r="K14">
-        <v>40000.0</v>
-      </c>
-      <c r="L14" t="s">
-        <v>41</v>
-      </c>
-      <c r="M14" t="s">
-        <v>41</v>
-      </c>
-      <c r="N14">
-        <v>180.0</v>
-      </c>
-      <c r="O14">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="A15" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="A16" t="s">
-        <v>50</v>
-      </c>
-      <c r="B16" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16">
-        <v>2</v>
-      </c>
-      <c r="E16" t="s">
-        <v>45</v>
-      </c>
-      <c r="F16" t="s">
-        <v>39</v>
-      </c>
-      <c r="H16" t="s">
-        <v>40</v>
-      </c>
-      <c r="I16">
+      <c r="I17">
         <v>69.0</v>
       </c>
-      <c r="J16">
+      <c r="J17">
         <v>69.0</v>
       </c>
-      <c r="K16">
+      <c r="K17">
         <v>4761.0</v>
       </c>
-      <c r="L16" t="s">
-        <v>41</v>
-      </c>
-      <c r="M16" t="s">
-        <v>41</v>
-      </c>
-      <c r="N16">
+      <c r="L17" t="s">
+        <v>42</v>
+      </c>
+      <c r="M17" t="s">
+        <v>42</v>
+      </c>
+      <c r="N17">
         <v>31.05</v>
       </c>
-      <c r="O16">
+      <c r="O17">
         <v>6.9</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:M9"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/excel/PPE_Report.xlsx
+++ b/public/excel/PPE_Report.xlsx
@@ -15,10 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="54">
-  <si>
-    <t>All items by Joannie Abbey Bailey</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
   <si>
     <t>INVENTORY OF EQUIPMENT</t>
   </si>
@@ -122,61 +119,28 @@
     <t>DEPRECIATION</t>
   </si>
   <si>
-    <t>Land (201) Code 1</t>
-  </si>
-  <si>
-    <t>01.51</t>
-  </si>
-  <si>
-    <t>Chart holder</t>
-  </si>
-  <si>
-    <t>Sticky Notes</t>
-  </si>
-  <si>
-    <t>2019-03-26</t>
-  </si>
-  <si>
-    <t>Bailey, Joannie</t>
+    <t>Library Books (224) Code 10</t>
+  </si>
+  <si>
+    <t>Tables</t>
+  </si>
+  <si>
+    <t>Process Testing</t>
+  </si>
+  <si>
+    <t>2020-01-23</t>
+  </si>
+  <si>
+    <t>Champlin, Marcelo</t>
+  </si>
+  <si>
+    <t>Balay</t>
   </si>
   <si>
     <t>I</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>01.54</t>
-  </si>
-  <si>
-    <t>Emergency light</t>
-  </si>
-  <si>
-    <t>Water Dispenser</t>
-  </si>
-  <si>
-    <t>2019-04-02</t>
-  </si>
-  <si>
-    <t>Office Buildings (211) Code 2</t>
-  </si>
-  <si>
-    <t>02.510</t>
-  </si>
-  <si>
-    <t>Ball Pen</t>
-  </si>
-  <si>
-    <t>Hospitals and Health Centers (213) Code 4</t>
-  </si>
-  <si>
-    <t>04.42</t>
-  </si>
-  <si>
-    <t>Instructional Material</t>
-  </si>
-  <si>
-    <t>Water bottles</t>
   </si>
 </sst>
 </file>
@@ -587,7 +551,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:O17"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A9" sqref="A9:O10"/>
@@ -595,346 +559,196 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="71.696777" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="47.845459" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="35.2771" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="31.706543" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="77.695313" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="18.709717" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="21.137695" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="21.137695" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="13.996582" bestFit="true" customWidth="true" style="0"/>
     <col min="9" max="9" width="6.998291" bestFit="true" customWidth="true" style="0"/>
     <col min="10" max="10" width="4.570313" bestFit="true" customWidth="true" style="0"/>
-    <col min="11" max="11" width="8.140869" bestFit="true" customWidth="true" style="0"/>
+    <col min="11" max="11" width="6.998291" bestFit="true" customWidth="true" style="0"/>
     <col min="12" max="12" width="4.570313" bestFit="true" customWidth="true" style="0"/>
     <col min="13" max="13" width="13.996582" bestFit="true" customWidth="true" style="0"/>
     <col min="14" max="14" width="15.281982" bestFit="true" customWidth="true" style="0"/>
     <col min="15" max="15" width="10.568848" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
         <v>3</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>4</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
         <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
         <v>7</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7" t="s">
         <v>8</v>
-      </c>
-      <c r="E7" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="I9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="J9" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O9" s="6" t="s">
         <v>21</v>
-      </c>
-      <c r="O9" s="6" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="G10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="H10" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="I10" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="J10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="K10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="L10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M10" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="M10" s="3" t="s">
+      <c r="N10" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="O10" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" t="s">
+      <c r="A12">
+        <v>10.45</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" t="s">
         <v>36</v>
       </c>
-      <c r="B12" t="s">
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="E12" t="s">
         <v>37</v>
       </c>
-      <c r="C12" t="s">
+      <c r="F12" t="s">
         <v>38</v>
       </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="G12" t="s">
         <v>39</v>
       </c>
-      <c r="F12" t="s">
+      <c r="H12" t="s">
         <v>40</v>
       </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12" t="s">
+      <c r="I12">
+        <v>1.0</v>
+      </c>
+      <c r="J12">
+        <v>1.0</v>
+      </c>
+      <c r="K12">
+        <v>1.0</v>
+      </c>
+      <c r="L12" t="s">
         <v>41</v>
       </c>
-      <c r="I12">
-        <v>500.0</v>
-      </c>
-      <c r="J12">
-        <v>500.0</v>
-      </c>
-      <c r="K12">
-        <v>250000.0</v>
-      </c>
-      <c r="L12" t="s">
-        <v>42</v>
-      </c>
       <c r="M12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N12">
-        <v>450.0</v>
+        <v>0.18</v>
       </c>
       <c r="O12">
-        <v>50.0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="A13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13">
-        <v>4</v>
-      </c>
-      <c r="E13" t="s">
-        <v>46</v>
-      </c>
-      <c r="F13" t="s">
-        <v>40</v>
-      </c>
-      <c r="H13" t="s">
-        <v>41</v>
-      </c>
-      <c r="I13">
-        <v>3.0</v>
-      </c>
-      <c r="J13">
-        <v>3.0</v>
-      </c>
-      <c r="K13">
-        <v>9.0</v>
-      </c>
-      <c r="L13" t="s">
-        <v>42</v>
-      </c>
-      <c r="M13" t="s">
-        <v>42</v>
-      </c>
-      <c r="N13">
-        <v>0.675</v>
-      </c>
-      <c r="O13">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="A14" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="A15" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15" t="s">
-        <v>39</v>
-      </c>
-      <c r="F15" t="s">
-        <v>40</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15" t="s">
-        <v>41</v>
-      </c>
-      <c r="I15">
-        <v>200.0</v>
-      </c>
-      <c r="J15">
-        <v>200.0</v>
-      </c>
-      <c r="K15">
-        <v>40000.0</v>
-      </c>
-      <c r="L15" t="s">
-        <v>42</v>
-      </c>
-      <c r="M15" t="s">
-        <v>42</v>
-      </c>
-      <c r="N15">
-        <v>180.0</v>
-      </c>
-      <c r="O15">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="A16" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
-      <c r="A17" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17">
-        <v>2</v>
-      </c>
-      <c r="E17" t="s">
-        <v>46</v>
-      </c>
-      <c r="F17" t="s">
-        <v>40</v>
-      </c>
-      <c r="H17" t="s">
-        <v>41</v>
-      </c>
-      <c r="I17">
-        <v>69.0</v>
-      </c>
-      <c r="J17">
-        <v>69.0</v>
-      </c>
-      <c r="K17">
-        <v>4761.0</v>
-      </c>
-      <c r="L17" t="s">
-        <v>42</v>
-      </c>
-      <c r="M17" t="s">
-        <v>42</v>
-      </c>
-      <c r="N17">
-        <v>31.05</v>
-      </c>
-      <c r="O17">
-        <v>6.9</v>
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
